--- a/Code/Results/Cases/Case_6_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_34/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.972524355401238</v>
+        <v>0.9812586133830258</v>
       </c>
       <c r="D2">
-        <v>0.9956955597613054</v>
+        <v>1.002921172077837</v>
       </c>
       <c r="E2">
-        <v>0.9823055811832905</v>
+        <v>0.9902299979779348</v>
       </c>
       <c r="F2">
-        <v>0.9478596082556996</v>
+        <v>0.9570903977804195</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03265618443937</v>
+        <v>1.035936356589171</v>
       </c>
       <c r="J2">
-        <v>0.9955591075416852</v>
+        <v>1.004014699930389</v>
       </c>
       <c r="K2">
-        <v>1.007215189806753</v>
+        <v>1.014339959801721</v>
       </c>
       <c r="L2">
-        <v>0.9940170584194595</v>
+        <v>1.001827143691867</v>
       </c>
       <c r="M2">
-        <v>0.9600965269130534</v>
+        <v>0.9691817681405965</v>
       </c>
       <c r="N2">
-        <v>0.9969729156666201</v>
+        <v>1.005440515966386</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9804741163688142</v>
+        <v>0.98642186734712</v>
       </c>
       <c r="D3">
-        <v>1.001593786093364</v>
+        <v>1.006622155523602</v>
       </c>
       <c r="E3">
-        <v>0.9889001049205618</v>
+        <v>0.9943785047896495</v>
       </c>
       <c r="F3">
-        <v>0.9588187424173039</v>
+        <v>0.9650678297242814</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034679629265756</v>
+        <v>1.037022255994917</v>
       </c>
       <c r="J3">
-        <v>1.001511609862484</v>
+        <v>1.00728965678305</v>
       </c>
       <c r="K3">
-        <v>1.012206314666678</v>
+        <v>1.017171000070378</v>
       </c>
       <c r="L3">
-        <v>0.9996770091397831</v>
+        <v>1.005083822633846</v>
       </c>
       <c r="M3">
-        <v>0.9700071489930587</v>
+        <v>0.97616808611773</v>
       </c>
       <c r="N3">
-        <v>1.002933871223476</v>
+        <v>1.00872012363342</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>0.9854376019476273</v>
+        <v>0.9896802791582584</v>
       </c>
       <c r="D4">
-        <v>1.005278507637176</v>
+        <v>1.008959236166153</v>
       </c>
       <c r="E4">
-        <v>0.9930242968035067</v>
+        <v>0.9970028379138142</v>
       </c>
       <c r="F4">
-        <v>0.9656445049315866</v>
+        <v>0.9700865554186685</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035928638170562</v>
+        <v>1.037695203647898</v>
       </c>
       <c r="J4">
-        <v>1.00522129608923</v>
+        <v>1.009351699671943</v>
       </c>
       <c r="K4">
-        <v>1.015313640465906</v>
+        <v>1.018950720454457</v>
       </c>
       <c r="L4">
-        <v>1.003207647972316</v>
+        <v>1.007137571148203</v>
       </c>
       <c r="M4">
-        <v>0.9761760523050506</v>
+        <v>0.9805599397722325</v>
       </c>
       <c r="N4">
-        <v>1.006648825630172</v>
+        <v>1.010785094859735</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9874838858750415</v>
+        <v>0.9910312380675786</v>
       </c>
       <c r="D5">
-        <v>1.006797957600667</v>
+        <v>1.009928480752563</v>
       </c>
       <c r="E5">
-        <v>0.9947261020167777</v>
+        <v>0.9980923633799191</v>
       </c>
       <c r="F5">
-        <v>0.9684552658250049</v>
+        <v>0.9721640921824869</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036440049996215</v>
+        <v>1.037971203737642</v>
       </c>
       <c r="J5">
-        <v>1.006749013084654</v>
+        <v>1.010205489002828</v>
       </c>
       <c r="K5">
-        <v>1.016592464246485</v>
+        <v>1.019686904029708</v>
       </c>
       <c r="L5">
-        <v>1.004662388002462</v>
+        <v>1.007988686823777</v>
       </c>
       <c r="M5">
-        <v>0.9787153395611239</v>
+        <v>0.9823771312210657</v>
       </c>
       <c r="N5">
-        <v>1.00817871215896</v>
+        <v>1.011640096669401</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9878251763840558</v>
+        <v>0.9912569876935295</v>
       </c>
       <c r="D6">
-        <v>1.00705139677135</v>
+        <v>1.010090458664472</v>
       </c>
       <c r="E6">
-        <v>0.995010025711736</v>
+        <v>0.9982745109600686</v>
       </c>
       <c r="F6">
-        <v>0.9689238862710722</v>
+        <v>0.9725110772817098</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036525137294718</v>
+        <v>1.038017145978706</v>
       </c>
       <c r="J6">
-        <v>1.007003715105436</v>
+        <v>1.010348091996785</v>
       </c>
       <c r="K6">
-        <v>1.016805620150274</v>
+        <v>1.019809821339247</v>
       </c>
       <c r="L6">
-        <v>1.004904967108339</v>
+        <v>1.008130887701435</v>
       </c>
       <c r="M6">
-        <v>0.9791386388274299</v>
+        <v>0.9826805830411163</v>
       </c>
       <c r="N6">
-        <v>1.008433775885826</v>
+        <v>1.011782902175966</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9854650995495918</v>
+        <v>0.9896984037837625</v>
       </c>
       <c r="D7">
-        <v>1.005298924506686</v>
+        <v>1.008972238678032</v>
       </c>
       <c r="E7">
-        <v>0.9930471594194388</v>
+        <v>0.9970174494137416</v>
       </c>
       <c r="F7">
-        <v>0.9656822875517935</v>
+        <v>0.9701144401646692</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035935524450196</v>
+        <v>1.03769891845573</v>
       </c>
       <c r="J7">
-        <v>1.005241831928752</v>
+        <v>1.009363158770865</v>
       </c>
       <c r="K7">
-        <v>1.015330834004509</v>
+        <v>1.018960603966498</v>
       </c>
       <c r="L7">
-        <v>1.003227199871991</v>
+        <v>1.007148991366679</v>
       </c>
       <c r="M7">
-        <v>0.9762101897468735</v>
+        <v>0.9805843335651009</v>
       </c>
       <c r="N7">
-        <v>1.00666939063294</v>
+        <v>1.010796570231892</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9752502163600046</v>
+        <v>0.9830212078265915</v>
       </c>
       <c r="D8">
-        <v>0.9977174310140013</v>
+        <v>1.004184228118039</v>
       </c>
       <c r="E8">
-        <v>0.9845652260824929</v>
+        <v>0.9916448258357862</v>
       </c>
       <c r="F8">
-        <v>0.9516213388432808</v>
+        <v>0.9598172851298727</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033352987757373</v>
+        <v>1.036309618703318</v>
       </c>
       <c r="J8">
-        <v>0.9976015551298315</v>
+        <v>1.005133660727772</v>
       </c>
       <c r="K8">
-        <v>1.008928410179049</v>
+        <v>1.015307818117783</v>
       </c>
       <c r="L8">
-        <v>0.9959584114336928</v>
+        <v>1.002939175472347</v>
       </c>
       <c r="M8">
-        <v>0.9634991137051464</v>
+        <v>0.9715705449041413</v>
       </c>
       <c r="N8">
-        <v>0.9990182637646137</v>
+        <v>1.006561065816448</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9557203973855791</v>
+        <v>0.9705794562535873</v>
       </c>
       <c r="D9">
-        <v>0.9832478670749025</v>
+        <v>0.9952783284605595</v>
       </c>
       <c r="E9">
-        <v>0.9684109570358587</v>
+        <v>0.9816872198633353</v>
       </c>
       <c r="F9">
-        <v>0.924560862035761</v>
+        <v>0.9404786933976196</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028301142316924</v>
+        <v>1.033624026447696</v>
       </c>
       <c r="J9">
-        <v>0.9829398782151735</v>
+        <v>0.9972156875565173</v>
       </c>
       <c r="K9">
-        <v>0.9966187119514854</v>
+        <v>1.0084484788405</v>
       </c>
       <c r="L9">
-        <v>0.9820382165298737</v>
+        <v>0.9950845651704894</v>
       </c>
       <c r="M9">
-        <v>0.9390092007684108</v>
+        <v>0.954617398002966</v>
       </c>
       <c r="N9">
-        <v>0.9843357655870189</v>
+        <v>0.9986318482150854</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9414292717164938</v>
+        <v>0.9617638360570306</v>
       </c>
       <c r="D10">
-        <v>0.9726900568212463</v>
+        <v>0.9889844797377276</v>
       </c>
       <c r="E10">
-        <v>0.9566423523756213</v>
+        <v>0.9746719977729759</v>
       </c>
       <c r="F10">
-        <v>0.9045663380909982</v>
+        <v>0.9266312293963048</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02453161653203</v>
+        <v>1.031658527811398</v>
       </c>
       <c r="J10">
-        <v>0.9721761666834776</v>
+        <v>0.9915811503080917</v>
       </c>
       <c r="K10">
-        <v>0.9875705515948298</v>
+        <v>1.003555512442116</v>
       </c>
       <c r="L10">
-        <v>0.9718412013676465</v>
+        <v>0.9895141275668614</v>
       </c>
       <c r="M10">
-        <v>0.9209026423926204</v>
+        <v>0.94246482542412</v>
       </c>
       <c r="N10">
-        <v>0.973556768350333</v>
+        <v>0.9929893092774769</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9348713803802703</v>
+        <v>0.9578059553837738</v>
       </c>
       <c r="D11">
-        <v>0.9678559781369047</v>
+        <v>0.9861640698149192</v>
       </c>
       <c r="E11">
-        <v>0.9512570526933926</v>
+        <v>0.9715329608110339</v>
       </c>
       <c r="F11">
-        <v>0.895324304303688</v>
+        <v>0.9203685919800542</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022785955764513</v>
+        <v>1.030761964082397</v>
       </c>
       <c r="J11">
-        <v>0.9672291108353384</v>
+        <v>0.9890458627109079</v>
       </c>
       <c r="K11">
-        <v>0.9834106556379487</v>
+        <v>1.001351715073798</v>
       </c>
       <c r="L11">
-        <v>0.9671606997955488</v>
+        <v>0.987012460693269</v>
       </c>
       <c r="M11">
-        <v>0.9125327672622761</v>
+        <v>0.9369665491801898</v>
       </c>
       <c r="N11">
-        <v>0.9686026871154542</v>
+        <v>0.9904504212811037</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9323727601481281</v>
+        <v>0.9563130513327178</v>
       </c>
       <c r="D12">
-        <v>0.9660160911559268</v>
+        <v>0.9851011383111591</v>
       </c>
       <c r="E12">
-        <v>0.9492077206513303</v>
+        <v>0.9703505942562286</v>
       </c>
       <c r="F12">
-        <v>0.8917906305795851</v>
+        <v>0.9179983650632045</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022118588167617</v>
+        <v>1.030421724531782</v>
       </c>
       <c r="J12">
-        <v>0.965343096246017</v>
+        <v>0.9880887272140594</v>
       </c>
       <c r="K12">
-        <v>0.9818246744984763</v>
+        <v>1.000519453906195</v>
       </c>
       <c r="L12">
-        <v>0.9653773047151814</v>
+        <v>0.9860687621614018</v>
       </c>
       <c r="M12">
-        <v>0.9093327248650368</v>
+        <v>0.9348853808543084</v>
       </c>
       <c r="N12">
-        <v>0.9667139941690872</v>
+        <v>0.9894919265420643</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9329116918512942</v>
+        <v>0.9566343430540796</v>
       </c>
       <c r="D13">
-        <v>0.9664128459589749</v>
+        <v>0.9853298508366026</v>
       </c>
       <c r="E13">
-        <v>0.9496496265362177</v>
+        <v>0.9706049774447921</v>
       </c>
       <c r="F13">
-        <v>0.8925534150319544</v>
+        <v>0.9185088473219954</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022262633106208</v>
+        <v>1.030495040201857</v>
       </c>
       <c r="J13">
-        <v>0.9657499447812253</v>
+        <v>0.988294752191031</v>
       </c>
       <c r="K13">
-        <v>0.9821668006861926</v>
+        <v>1.000698610793793</v>
       </c>
       <c r="L13">
-        <v>0.9657619698112726</v>
+        <v>0.9862718607457013</v>
       </c>
       <c r="M13">
-        <v>0.9100234793459439</v>
+        <v>0.9353336164809717</v>
       </c>
       <c r="N13">
-        <v>0.9671214204758813</v>
+        <v>0.989698244098135</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9346661697908956</v>
+        <v>0.9576830261102217</v>
       </c>
       <c r="D14">
-        <v>0.9677048275757824</v>
+        <v>0.9860765260528989</v>
       </c>
       <c r="E14">
-        <v>0.9510886893768458</v>
+        <v>0.9714355674717303</v>
       </c>
       <c r="F14">
-        <v>0.8950343505722441</v>
+        <v>0.9201735906965803</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022731189922655</v>
+        <v>1.030733989335756</v>
       </c>
       <c r="J14">
-        <v>0.9670742361221351</v>
+        <v>0.988967066712091</v>
       </c>
       <c r="K14">
-        <v>0.9832804193392994</v>
+        <v>1.001283204503987</v>
       </c>
       <c r="L14">
-        <v>0.9670142312108657</v>
+        <v>0.9869347556207488</v>
       </c>
       <c r="M14">
-        <v>0.9122701846087552</v>
+        <v>0.936795333146283</v>
       </c>
       <c r="N14">
-        <v>0.9684475924623938</v>
+        <v>0.9903715133829299</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.935738611128586</v>
+        <v>0.9583260848933697</v>
       </c>
       <c r="D15">
-        <v>0.9684948292788668</v>
+        <v>0.9865345169455986</v>
       </c>
       <c r="E15">
-        <v>0.9519686686444725</v>
+        <v>0.9719451130778435</v>
       </c>
       <c r="F15">
-        <v>0.8965491477196208</v>
+        <v>0.9211933358474117</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02301730859285</v>
+        <v>1.030880245470019</v>
       </c>
       <c r="J15">
-        <v>0.9678835735906832</v>
+        <v>0.9893792249279374</v>
       </c>
       <c r="K15">
-        <v>0.9839610007536043</v>
+        <v>1.001641552022172</v>
       </c>
       <c r="L15">
-        <v>0.9677796812841221</v>
+        <v>0.987341237975333</v>
       </c>
       <c r="M15">
-        <v>0.9136419959638368</v>
+        <v>0.9376906863044026</v>
       </c>
       <c r="N15">
-        <v>0.9692580792829795</v>
+        <v>0.9907842569107184</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9418561253126502</v>
+        <v>0.9620234082226906</v>
       </c>
       <c r="D16">
-        <v>0.973004954273386</v>
+        <v>0.9891695727420321</v>
       </c>
       <c r="E16">
-        <v>0.956993212345952</v>
+        <v>0.9748780932599218</v>
       </c>
       <c r="F16">
-        <v>0.9051663437373684</v>
+        <v>0.927040917585387</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024644925519907</v>
+        <v>1.031717039767095</v>
       </c>
       <c r="J16">
-        <v>0.9724980132025394</v>
+        <v>0.9917473084388636</v>
       </c>
       <c r="K16">
-        <v>0.987841170613551</v>
+        <v>1.003699904656003</v>
       </c>
       <c r="L16">
-        <v>0.9721458382268191</v>
+        <v>0.9896781835345398</v>
       </c>
       <c r="M16">
-        <v>0.9214460346079762</v>
+        <v>0.9428244736418971</v>
       </c>
       <c r="N16">
-        <v>0.973879071928368</v>
+        <v>0.9931557033718532</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9455898343111359</v>
+        <v>0.9643038812212785</v>
       </c>
       <c r="D17">
-        <v>0.975760608392977</v>
+        <v>0.9907963226336404</v>
       </c>
       <c r="E17">
-        <v>0.9600639146750831</v>
+        <v>0.976689950397466</v>
       </c>
       <c r="F17">
-        <v>0.9104069041220415</v>
+        <v>0.9306349451261337</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025634278451768</v>
+        <v>1.032229503467682</v>
       </c>
       <c r="J17">
-        <v>0.9753123498072898</v>
+        <v>0.9932064596545112</v>
       </c>
       <c r="K17">
-        <v>0.9902074229355976</v>
+        <v>1.004967673312518</v>
       </c>
       <c r="L17">
-        <v>0.9748103779792924</v>
+        <v>0.9911194179200393</v>
       </c>
       <c r="M17">
-        <v>0.9261920884642419</v>
+        <v>0.9459792863480434</v>
       </c>
       <c r="N17">
-        <v>0.9766974052139061</v>
+        <v>0.994616926749594</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9477325189227399</v>
+        <v>0.9656205906889104</v>
       </c>
       <c r="D18">
-        <v>0.9773429814867253</v>
+        <v>0.9917360734636494</v>
       </c>
       <c r="E18">
-        <v>0.9618275007151773</v>
+        <v>0.9777370767404584</v>
       </c>
       <c r="F18">
-        <v>0.913408266080471</v>
+        <v>0.9327058509715006</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026200552986993</v>
+        <v>1.032524053675495</v>
       </c>
       <c r="J18">
-        <v>0.9769266985404369</v>
+        <v>0.9940484222468861</v>
       </c>
       <c r="K18">
-        <v>0.9915646112979679</v>
+        <v>1.005698994189091</v>
       </c>
       <c r="L18">
-        <v>0.9763393623338115</v>
+        <v>0.991951490812305</v>
       </c>
       <c r="M18">
-        <v>0.9289101726202454</v>
+        <v>0.9477969026717735</v>
       </c>
       <c r="N18">
-        <v>0.9783140465074229</v>
+        <v>0.9954600850254244</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9484573577103469</v>
+        <v>0.9660673198105559</v>
       </c>
       <c r="D19">
-        <v>0.9778784304697273</v>
+        <v>0.9920549888694155</v>
       </c>
       <c r="E19">
-        <v>0.962424323960576</v>
+        <v>0.9780925076335885</v>
       </c>
       <c r="F19">
-        <v>0.9144226131973697</v>
+        <v>0.9334077747573762</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026391858692807</v>
+        <v>1.032623758854569</v>
       </c>
       <c r="J19">
-        <v>0.977472683990345</v>
+        <v>0.9943339907164696</v>
       </c>
       <c r="K19">
-        <v>0.9920235970810621</v>
+        <v>1.00594699912838</v>
       </c>
       <c r="L19">
-        <v>0.97685656996196</v>
+        <v>0.9922337803789426</v>
       </c>
       <c r="M19">
-        <v>0.9298287652848023</v>
+        <v>0.9484129368057361</v>
       </c>
       <c r="N19">
-        <v>0.9788608073192954</v>
+        <v>0.9957460590349898</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9451929233391628</v>
+        <v>0.964060610710498</v>
       </c>
       <c r="D20">
-        <v>0.9754675660566411</v>
+        <v>0.9906227364957843</v>
       </c>
       <c r="E20">
-        <v>0.9597373386346821</v>
+        <v>0.9764965664567387</v>
       </c>
       <c r="F20">
-        <v>0.9098504538605415</v>
+        <v>0.9302519971959041</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02552925982278</v>
+        <v>1.032174974684166</v>
       </c>
       <c r="J20">
-        <v>0.9750132482360365</v>
+        <v>0.9930508588244349</v>
       </c>
       <c r="K20">
-        <v>0.9899559556526719</v>
+        <v>1.004832502516995</v>
       </c>
       <c r="L20">
-        <v>0.9745271375107589</v>
+        <v>0.9909656809221096</v>
       </c>
       <c r="M20">
-        <v>0.9256881508882119</v>
+        <v>0.9456431585324522</v>
       </c>
       <c r="N20">
-        <v>0.9763978788841147</v>
+        <v>0.9944611049484913</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.934151316029709</v>
+        <v>0.9573748577484753</v>
       </c>
       <c r="D21">
-        <v>0.9673256377009244</v>
+        <v>0.9858570800223303</v>
       </c>
       <c r="E21">
-        <v>0.950666323276919</v>
+        <v>0.9711914417245784</v>
       </c>
       <c r="F21">
-        <v>0.8943066770495993</v>
+        <v>0.919684614394076</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022593751968106</v>
+        <v>1.030663827244927</v>
       </c>
       <c r="J21">
-        <v>0.9666856521063741</v>
+        <v>0.9887695216284189</v>
       </c>
       <c r="K21">
-        <v>0.9829536531200451</v>
+        <v>1.001111441278055</v>
       </c>
       <c r="L21">
-        <v>0.9666467546852242</v>
+        <v>0.9867399576094886</v>
       </c>
       <c r="M21">
-        <v>0.9116112056032833</v>
+        <v>0.936365996298295</v>
       </c>
       <c r="N21">
-        <v>0.9680584566127592</v>
+        <v>0.9901736877625805</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9268414357615579</v>
+        <v>0.9530385639919903</v>
       </c>
       <c r="D22">
-        <v>0.9619470576300051</v>
+        <v>0.9827715816879695</v>
       </c>
       <c r="E22">
-        <v>0.9446759894735522</v>
+        <v>0.9677604115767918</v>
       </c>
       <c r="F22">
-        <v>0.8839419964850999</v>
+        <v>0.9127835218224041</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020637195808038</v>
+        <v>1.029671738338114</v>
       </c>
       <c r="J22">
-        <v>0.9611658561497987</v>
+        <v>0.9859878547317604</v>
       </c>
       <c r="K22">
-        <v>0.9783120161539007</v>
+        <v>0.9986922411367559</v>
       </c>
       <c r="L22">
-        <v>0.9614293061864746</v>
+        <v>0.9839987869850653</v>
       </c>
       <c r="M22">
-        <v>0.9022257399812571</v>
+        <v>0.9303062018680118</v>
       </c>
       <c r="N22">
-        <v>0.9625308219127959</v>
+        <v>0.9873880705798671</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9307541699380215</v>
+        <v>0.9553504896026851</v>
       </c>
       <c r="D23">
-        <v>0.9648248191439509</v>
+        <v>0.9844160808375566</v>
       </c>
       <c r="E23">
-        <v>0.9478809222897604</v>
+        <v>0.969588736718609</v>
       </c>
       <c r="F23">
-        <v>0.8894977140020719</v>
+        <v>0.9164677416074754</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021685654428877</v>
+        <v>1.030201780809007</v>
       </c>
       <c r="J23">
-        <v>0.9641210310149765</v>
+        <v>0.9874713733144745</v>
       </c>
       <c r="K23">
-        <v>0.9807970203935518</v>
+        <v>0.9999825750136884</v>
       </c>
       <c r="L23">
-        <v>0.9642220263223878</v>
+        <v>0.9854602885134159</v>
       </c>
       <c r="M23">
-        <v>0.9072563747411021</v>
+        <v>0.9335413712902593</v>
       </c>
       <c r="N23">
-        <v>0.9654901934652457</v>
+        <v>0.9888736959291309</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9453723783392139</v>
+        <v>0.9641705756321887</v>
       </c>
       <c r="D24">
-        <v>0.975600056029713</v>
+        <v>0.9907012006618241</v>
       </c>
       <c r="E24">
-        <v>0.9598849888755456</v>
+        <v>0.9765839782242062</v>
       </c>
       <c r="F24">
-        <v>0.9101020599309171</v>
+        <v>0.9304251131744669</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025576746449857</v>
+        <v>1.032199627343489</v>
       </c>
       <c r="J24">
-        <v>0.9751484830354593</v>
+        <v>0.9931211962947046</v>
       </c>
       <c r="K24">
-        <v>0.9900696536624111</v>
+        <v>1.00489360549292</v>
       </c>
       <c r="L24">
-        <v>0.9746551991819531</v>
+        <v>0.991035174478624</v>
       </c>
       <c r="M24">
-        <v>0.9259160128991576</v>
+        <v>0.9457951096054994</v>
       </c>
       <c r="N24">
-        <v>0.9765333057324641</v>
+        <v>0.9945315423060368</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9609733168319805</v>
+        <v>0.9738825096612465</v>
       </c>
       <c r="D25">
-        <v>0.9871356008685744</v>
+        <v>0.9976402943869833</v>
       </c>
       <c r="E25">
-        <v>0.9727478736156515</v>
+        <v>0.9843241886980318</v>
       </c>
       <c r="F25">
-        <v>0.9318660286974784</v>
+        <v>0.9456342818265703</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029672604387514</v>
+        <v>1.034347955162796</v>
       </c>
       <c r="J25">
-        <v>0.9868894511346127</v>
+        <v>0.9993219737976505</v>
       </c>
       <c r="K25">
-        <v>0.9999369576535074</v>
+        <v>1.010275352525323</v>
       </c>
       <c r="L25">
-        <v>0.9857845080860942</v>
+        <v>0.9971708254827659</v>
       </c>
       <c r="M25">
-        <v>0.9456229229904116</v>
+        <v>0.959139571153595</v>
       </c>
       <c r="N25">
-        <v>0.9882909473530259</v>
+        <v>1.000741125624276</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_34/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9812586133830258</v>
+        <v>0.9866576127743009</v>
       </c>
       <c r="D2">
-        <v>1.002921172077837</v>
+        <v>1.010888466779866</v>
       </c>
       <c r="E2">
-        <v>0.9902299979779348</v>
+        <v>0.9949569805317919</v>
       </c>
       <c r="F2">
-        <v>0.9570903977804195</v>
+        <v>0.9627899717126485</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035936356589171</v>
+        <v>1.039267816578452</v>
       </c>
       <c r="J2">
-        <v>1.004014699930389</v>
+        <v>1.009244849925817</v>
       </c>
       <c r="K2">
-        <v>1.014339959801721</v>
+        <v>1.022198163886786</v>
       </c>
       <c r="L2">
-        <v>1.001827143691867</v>
+        <v>1.00648702262701</v>
       </c>
       <c r="M2">
-        <v>0.9691817681405965</v>
+        <v>0.9747932513329461</v>
       </c>
       <c r="N2">
-        <v>1.005440515966386</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.00706303786765</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.026766024473867</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,81 +480,93 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.98642186734712</v>
+        <v>0.9906637131623738</v>
       </c>
       <c r="D3">
-        <v>1.006622155523602</v>
+        <v>1.013417618767539</v>
       </c>
       <c r="E3">
-        <v>0.9943785047896495</v>
+        <v>0.9981038633528034</v>
       </c>
       <c r="F3">
-        <v>0.9650678297242814</v>
+        <v>0.9695215384183896</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037022255994917</v>
+        <v>1.039869264066773</v>
       </c>
       <c r="J3">
-        <v>1.00728965678305</v>
+        <v>1.011412171556864</v>
       </c>
       <c r="K3">
-        <v>1.017171000070378</v>
+        <v>1.023881649613447</v>
       </c>
       <c r="L3">
-        <v>1.005083822633846</v>
+        <v>1.008761063231334</v>
       </c>
       <c r="M3">
-        <v>0.97616808611773</v>
+        <v>0.9805598449883035</v>
       </c>
       <c r="N3">
-        <v>1.00872012363342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.007796082095433</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.027953726811495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9896802791582584</v>
+        <v>0.9932046212738074</v>
       </c>
       <c r="D4">
-        <v>1.008959236166153</v>
+        <v>1.015024988395424</v>
       </c>
       <c r="E4">
-        <v>0.9970028379138142</v>
+        <v>1.000105866314025</v>
       </c>
       <c r="F4">
-        <v>0.9700865554186685</v>
+        <v>0.9737747863721177</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037695203647898</v>
+        <v>1.040240098499395</v>
       </c>
       <c r="J4">
-        <v>1.009351699671943</v>
+        <v>1.01278376545245</v>
       </c>
       <c r="K4">
-        <v>1.018950720454457</v>
+        <v>1.024945395063972</v>
       </c>
       <c r="L4">
-        <v>1.007137571148203</v>
+        <v>1.010203013790549</v>
       </c>
       <c r="M4">
-        <v>0.9805599397722325</v>
+        <v>0.9842003824434308</v>
       </c>
       <c r="N4">
-        <v>1.010785094859735</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.008259881511055</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.0287068200303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9910312380675786</v>
+        <v>0.9942636651268806</v>
       </c>
       <c r="D5">
-        <v>1.009928480752563</v>
+        <v>1.015697763345442</v>
       </c>
       <c r="E5">
-        <v>0.9980923633799191</v>
+        <v>1.000942016032231</v>
       </c>
       <c r="F5">
-        <v>0.9721640921824869</v>
+        <v>0.9755423377613539</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037971203737642</v>
+        <v>1.04039337576036</v>
       </c>
       <c r="J5">
-        <v>1.010205489002828</v>
+        <v>1.01335586996596</v>
       </c>
       <c r="K5">
-        <v>1.019686904029708</v>
+        <v>1.025390406461901</v>
       </c>
       <c r="L5">
-        <v>1.007988686823777</v>
+        <v>1.010804769886192</v>
       </c>
       <c r="M5">
-        <v>0.9823771312210657</v>
+        <v>0.9857129225075448</v>
       </c>
       <c r="N5">
-        <v>1.011640096669401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.008453533208088</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.029028768390641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9912569876935295</v>
+        <v>0.9944440680501888</v>
       </c>
       <c r="D6">
-        <v>1.010090458664472</v>
+        <v>1.015814962654682</v>
       </c>
       <c r="E6">
-        <v>0.9982745109600686</v>
+        <v>1.001084894174704</v>
       </c>
       <c r="F6">
-        <v>0.9725110772817098</v>
+        <v>0.9758411958709585</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038017145978706</v>
+        <v>1.040420923403958</v>
       </c>
       <c r="J6">
-        <v>1.010348091996785</v>
+        <v>1.013454702403171</v>
       </c>
       <c r="K6">
-        <v>1.019809821339247</v>
+        <v>1.025469358305005</v>
       </c>
       <c r="L6">
-        <v>1.008130887701435</v>
+        <v>1.010908319987609</v>
       </c>
       <c r="M6">
-        <v>0.9826805830411163</v>
+        <v>0.9859690684024233</v>
       </c>
       <c r="N6">
-        <v>1.011782902175966</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.008487261071664</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.02909347064593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9896984037837625</v>
+        <v>0.9932275991077655</v>
       </c>
       <c r="D7">
-        <v>1.008972238678032</v>
+        <v>1.01504641082061</v>
       </c>
       <c r="E7">
-        <v>0.9970174494137416</v>
+        <v>1.00012497840431</v>
       </c>
       <c r="F7">
-        <v>0.9701144401646692</v>
+        <v>0.9738076817231196</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03769891845573</v>
+        <v>1.040247697894589</v>
       </c>
       <c r="J7">
-        <v>1.009363158770865</v>
+        <v>1.012799989802539</v>
       </c>
       <c r="K7">
-        <v>1.018960603966498</v>
+        <v>1.024963626666938</v>
       </c>
       <c r="L7">
-        <v>1.007148991366679</v>
+        <v>1.010218894322628</v>
       </c>
       <c r="M7">
-        <v>0.9805843335651009</v>
+        <v>0.9842297418796805</v>
       </c>
       <c r="N7">
-        <v>1.010796570231892</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.008266126087345</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.028740126376911</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9830212078265915</v>
+        <v>0.9880333501491856</v>
       </c>
       <c r="D8">
-        <v>1.004184228118039</v>
+        <v>1.011764705372354</v>
       </c>
       <c r="E8">
-        <v>0.9916448258357862</v>
+        <v>0.9960376384661518</v>
       </c>
       <c r="F8">
-        <v>0.9598172851298727</v>
+        <v>0.9650984723029151</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036309618703318</v>
+        <v>1.03948178158391</v>
       </c>
       <c r="J8">
-        <v>1.005133660727772</v>
+        <v>1.009994467352848</v>
       </c>
       <c r="K8">
-        <v>1.015307818117783</v>
+        <v>1.022787639937119</v>
       </c>
       <c r="L8">
-        <v>1.002939175472347</v>
+        <v>1.007271551323834</v>
       </c>
       <c r="M8">
-        <v>0.9715705449041413</v>
+        <v>0.9767729229508415</v>
       </c>
       <c r="N8">
-        <v>1.006561065816448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.007317589614553</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.027206115831795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9705794562535873</v>
+        <v>0.9784520602645503</v>
       </c>
       <c r="D9">
-        <v>0.9952783284605595</v>
+        <v>1.005728639546181</v>
       </c>
       <c r="E9">
-        <v>0.9816872198633353</v>
+        <v>0.988546414702081</v>
       </c>
       <c r="F9">
-        <v>0.9404786933976196</v>
+        <v>0.9488916830481562</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033624026447696</v>
+        <v>1.037979242203866</v>
       </c>
       <c r="J9">
-        <v>0.9972156875565173</v>
+        <v>1.004789370633262</v>
       </c>
       <c r="K9">
-        <v>1.0084484788405</v>
+        <v>1.018729452322729</v>
       </c>
       <c r="L9">
-        <v>0.9950845651704894</v>
+        <v>1.00182809252989</v>
       </c>
       <c r="M9">
-        <v>0.954617398002966</v>
+        <v>0.9628722108608491</v>
       </c>
       <c r="N9">
-        <v>0.9986318482150854</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.005555764102884</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.024333385726671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9617638360570306</v>
+        <v>0.9717568108494627</v>
       </c>
       <c r="D10">
-        <v>0.9889844797377276</v>
+        <v>1.001535885401553</v>
       </c>
       <c r="E10">
-        <v>0.9746719977729759</v>
+        <v>0.983348403142383</v>
       </c>
       <c r="F10">
-        <v>0.9266312293963048</v>
+        <v>0.9374297516058313</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031658527811398</v>
+        <v>1.036876914897505</v>
       </c>
       <c r="J10">
-        <v>0.9915811503080917</v>
+        <v>1.001137602064216</v>
       </c>
       <c r="K10">
-        <v>1.003555512442116</v>
+        <v>1.015877464224994</v>
       </c>
       <c r="L10">
-        <v>0.9895141275668614</v>
+        <v>0.9980249597685749</v>
       </c>
       <c r="M10">
-        <v>0.94246482542412</v>
+        <v>0.9530287498374037</v>
       </c>
       <c r="N10">
-        <v>0.9929893092774769</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.004319839454202</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.022333885634987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9578059553837738</v>
+        <v>0.9687873921213082</v>
       </c>
       <c r="D11">
-        <v>0.9861640698149192</v>
+        <v>0.9996907150806664</v>
       </c>
       <c r="E11">
-        <v>0.9715329608110339</v>
+        <v>0.9810536940139966</v>
       </c>
       <c r="F11">
-        <v>0.9203685919800542</v>
+        <v>0.9322987700249864</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030761964082397</v>
+        <v>1.036380760955209</v>
       </c>
       <c r="J11">
-        <v>0.9890458627109079</v>
+        <v>0.9995188754899377</v>
       </c>
       <c r="K11">
-        <v>1.001351715073798</v>
+        <v>1.014618466420101</v>
       </c>
       <c r="L11">
-        <v>0.987012460693269</v>
+        <v>0.9963419787345621</v>
       </c>
       <c r="M11">
-        <v>0.9369665491801898</v>
+        <v>0.9486212841355781</v>
       </c>
       <c r="N11">
-        <v>0.9904504212811037</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.003773190788732</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.021477127856744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9563130513327178</v>
+        <v>0.9676652709461985</v>
       </c>
       <c r="D12">
-        <v>0.9851011383111591</v>
+        <v>0.9989899115428716</v>
       </c>
       <c r="E12">
-        <v>0.9703505942562286</v>
+        <v>0.9801871579301786</v>
       </c>
       <c r="F12">
-        <v>0.9179983650632045</v>
+        <v>0.9303569372812706</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030421724531782</v>
+        <v>1.03618872044813</v>
       </c>
       <c r="J12">
-        <v>0.9880887272140594</v>
+        <v>0.9989040617488104</v>
       </c>
       <c r="K12">
-        <v>1.000519453906195</v>
+        <v>1.014136488872517</v>
       </c>
       <c r="L12">
-        <v>0.9860687621614018</v>
+        <v>0.9957040459979399</v>
       </c>
       <c r="M12">
-        <v>0.9348853808543084</v>
+        <v>0.9469521576674036</v>
       </c>
       <c r="N12">
-        <v>0.9894919265420643</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.003564933825786</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.021136342141646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9566343430540796</v>
+        <v>0.9679053478708185</v>
       </c>
       <c r="D13">
-        <v>0.9853298508366026</v>
+        <v>0.999138917157437</v>
       </c>
       <c r="E13">
-        <v>0.9706049774447921</v>
+        <v>0.9803723243090001</v>
       </c>
       <c r="F13">
-        <v>0.9185088473219954</v>
+        <v>0.9307735044409982</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030495040201857</v>
+        <v>1.036229353043502</v>
       </c>
       <c r="J13">
-        <v>0.988294752191031</v>
+        <v>0.9990351292928812</v>
       </c>
       <c r="K13">
-        <v>1.000698610793793</v>
+        <v>1.014238543338634</v>
       </c>
       <c r="L13">
-        <v>0.9862718607457013</v>
+        <v>0.9958401393774158</v>
       </c>
       <c r="M13">
-        <v>0.9353336164809717</v>
+        <v>0.9473100800196533</v>
       </c>
       <c r="N13">
-        <v>0.989698244098135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.003609202684435</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.021205960755225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9576830261102217</v>
+        <v>0.9686943853632604</v>
       </c>
       <c r="D14">
-        <v>0.9860765260528989</v>
+        <v>0.9996322300632705</v>
       </c>
       <c r="E14">
-        <v>0.9714355674717303</v>
+        <v>0.9809817725214015</v>
       </c>
       <c r="F14">
-        <v>0.9201735906965803</v>
+        <v>0.9321383037658324</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030733989335756</v>
+        <v>1.03636465147204</v>
       </c>
       <c r="J14">
-        <v>0.988967066712091</v>
+        <v>0.9994677159506661</v>
       </c>
       <c r="K14">
-        <v>1.001283204503987</v>
+        <v>1.014578063291755</v>
       </c>
       <c r="L14">
-        <v>0.9869347556207488</v>
+        <v>0.9962889365386366</v>
       </c>
       <c r="M14">
-        <v>0.936795333146283</v>
+        <v>0.9484832925947076</v>
       </c>
       <c r="N14">
-        <v>0.9903715133829299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.00375580706578</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.021447472594324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9583260848933697</v>
+        <v>0.9691812134079217</v>
       </c>
       <c r="D15">
-        <v>0.9865345169455986</v>
+        <v>0.9999384952100576</v>
       </c>
       <c r="E15">
-        <v>0.9719451130778435</v>
+        <v>0.9813583087286284</v>
       </c>
       <c r="F15">
-        <v>0.9211933358474117</v>
+        <v>0.9329778686633845</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030880245470019</v>
+        <v>1.036448956638537</v>
       </c>
       <c r="J15">
-        <v>0.9893792249279374</v>
+        <v>0.9997355307708656</v>
       </c>
       <c r="K15">
-        <v>1.001641552022172</v>
+        <v>1.014789637457937</v>
       </c>
       <c r="L15">
-        <v>0.987341237975333</v>
+        <v>0.996566618805813</v>
       </c>
       <c r="M15">
-        <v>0.9376906863044026</v>
+        <v>0.9492052732251525</v>
       </c>
       <c r="N15">
-        <v>0.9907842569107184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.003846821806074</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.021603049305447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9620234082226906</v>
+        <v>0.9719729465377674</v>
       </c>
       <c r="D16">
-        <v>0.9891695727420321</v>
+        <v>1.001685641753229</v>
       </c>
       <c r="E16">
-        <v>0.9748780932599218</v>
+        <v>0.9835183776197958</v>
       </c>
       <c r="F16">
-        <v>0.927040917585387</v>
+        <v>0.9377887911742598</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031717039767095</v>
+        <v>1.036922040663411</v>
       </c>
       <c r="J16">
-        <v>0.9917473084388636</v>
+        <v>1.001263930314885</v>
       </c>
       <c r="K16">
-        <v>1.003699904656003</v>
+        <v>1.01598793949799</v>
       </c>
       <c r="L16">
-        <v>0.9896781835345398</v>
+        <v>0.9981541545562179</v>
       </c>
       <c r="M16">
-        <v>0.9428244736418971</v>
+        <v>0.953339805771236</v>
       </c>
       <c r="N16">
-        <v>0.9931557033718532</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.00436464652803</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.022453545058463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9643038812212785</v>
+        <v>0.9737016480448806</v>
       </c>
       <c r="D17">
-        <v>0.9907963226336404</v>
+        <v>1.002769182760635</v>
       </c>
       <c r="E17">
-        <v>0.976689950397466</v>
+        <v>0.984858392046477</v>
       </c>
       <c r="F17">
-        <v>0.9306349451261337</v>
+        <v>0.9407566544715787</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032229503467682</v>
+        <v>1.037211758108572</v>
       </c>
       <c r="J17">
-        <v>0.9932064596545112</v>
+        <v>1.002209342183275</v>
       </c>
       <c r="K17">
-        <v>1.004967673312518</v>
+        <v>1.016728831763457</v>
       </c>
       <c r="L17">
-        <v>0.9911194179200393</v>
+        <v>0.9991372213688213</v>
       </c>
       <c r="M17">
-        <v>0.9459792863480434</v>
+        <v>0.9558897941773237</v>
       </c>
       <c r="N17">
-        <v>0.994616926749594</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.004684948170968</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.022980033908047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9656205906889104</v>
+        <v>0.9746957094746665</v>
       </c>
       <c r="D18">
-        <v>0.9917360734636494</v>
+        <v>1.003388121754026</v>
       </c>
       <c r="E18">
-        <v>0.9777370767404584</v>
+        <v>0.9856289828186435</v>
       </c>
       <c r="F18">
-        <v>0.9327058509715006</v>
+        <v>0.942463618152851</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032524053675495</v>
+        <v>1.037374323920974</v>
       </c>
       <c r="J18">
-        <v>0.9940484222468861</v>
+        <v>1.002749985923368</v>
       </c>
       <c r="K18">
-        <v>1.005698994189091</v>
+        <v>1.017148626966809</v>
       </c>
       <c r="L18">
-        <v>0.991951490812305</v>
+        <v>0.9997004769112769</v>
       </c>
       <c r="M18">
-        <v>0.9477969026717735</v>
+        <v>0.9573553516233108</v>
       </c>
       <c r="N18">
-        <v>0.9954600850254244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.004867468403532</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.023265005884489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9660673198105559</v>
+        <v>0.9750382893397405</v>
       </c>
       <c r="D19">
-        <v>0.9920549888694155</v>
+        <v>1.003605173853599</v>
       </c>
       <c r="E19">
-        <v>0.9780925076335885</v>
+        <v>0.9858953340260591</v>
       </c>
       <c r="F19">
-        <v>0.9334077747573762</v>
+        <v>0.9430480952342909</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032623758854569</v>
+        <v>1.037432370866581</v>
       </c>
       <c r="J19">
-        <v>0.9943339907164696</v>
+        <v>1.002938294113629</v>
       </c>
       <c r="K19">
-        <v>1.00594699912838</v>
+        <v>1.017297755104037</v>
       </c>
       <c r="L19">
-        <v>0.9922337803789426</v>
+        <v>0.9998961786244789</v>
       </c>
       <c r="M19">
-        <v>0.9484129368057361</v>
+        <v>0.9578577697651147</v>
       </c>
       <c r="N19">
-        <v>0.9957460590349898</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.004931542995827</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.023376954900772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.964060610710498</v>
+        <v>0.9735164960276541</v>
       </c>
       <c r="D20">
-        <v>0.9906227364957843</v>
+        <v>1.002652704915941</v>
       </c>
       <c r="E20">
-        <v>0.9764965664567387</v>
+        <v>0.9847147153734092</v>
       </c>
       <c r="F20">
-        <v>0.9302519971959041</v>
+        <v>0.9404394975329878</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032174974684166</v>
+        <v>1.037180627941549</v>
       </c>
       <c r="J20">
-        <v>0.9930508588244349</v>
+        <v>1.002107916982447</v>
       </c>
       <c r="K20">
-        <v>1.004832502516995</v>
+        <v>1.016649069532798</v>
       </c>
       <c r="L20">
-        <v>0.9909656809221096</v>
+        <v>0.9990317705920921</v>
       </c>
       <c r="M20">
-        <v>0.9456431585324522</v>
+        <v>0.9556172528162493</v>
       </c>
       <c r="N20">
-        <v>0.9944611049484913</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.004650535599472</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.022922277891947</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9573748577484753</v>
+        <v>0.9684692720116015</v>
       </c>
       <c r="D21">
-        <v>0.9858570800223303</v>
+        <v>0.9994964233385483</v>
       </c>
       <c r="E21">
-        <v>0.9711914417245784</v>
+        <v>0.980808768703037</v>
       </c>
       <c r="F21">
-        <v>0.919684614394076</v>
+        <v>0.9317446932204976</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030663827244927</v>
+        <v>1.036329103523125</v>
       </c>
       <c r="J21">
-        <v>0.9887695216284189</v>
+        <v>0.9993471034863771</v>
       </c>
       <c r="K21">
-        <v>1.001111441278055</v>
+        <v>1.01448734241888</v>
       </c>
       <c r="L21">
-        <v>0.9867399576094886</v>
+        <v>0.9961630805230968</v>
       </c>
       <c r="M21">
-        <v>0.936365996298295</v>
+        <v>0.948145820634649</v>
       </c>
       <c r="N21">
-        <v>0.9901736877625805</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.003715645584976</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.021397093114438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9530385639919903</v>
+        <v>0.9652112429334841</v>
       </c>
       <c r="D22">
-        <v>0.9827715816879695</v>
+        <v>0.9974586112689966</v>
       </c>
       <c r="E22">
-        <v>0.9677604115767918</v>
+        <v>0.9782946621218715</v>
       </c>
       <c r="F22">
-        <v>0.9127835218224041</v>
+        <v>0.9260971619377851</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029671738338114</v>
+        <v>1.035765096988055</v>
       </c>
       <c r="J22">
-        <v>0.9859878547317604</v>
+        <v>0.997558100838866</v>
       </c>
       <c r="K22">
-        <v>0.9986922411367559</v>
+        <v>1.01308058224275</v>
       </c>
       <c r="L22">
-        <v>0.9839987869850653</v>
+        <v>0.9943087274961336</v>
       </c>
       <c r="M22">
-        <v>0.9303062018680118</v>
+        <v>0.9432900043245306</v>
       </c>
       <c r="N22">
-        <v>0.9873880705798671</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.003108935509262</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.020388665104239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9553504896026851</v>
+        <v>0.966937623900283</v>
       </c>
       <c r="D23">
-        <v>0.9844160808375566</v>
+        <v>0.9985319053611309</v>
       </c>
       <c r="E23">
-        <v>0.969588736718609</v>
+        <v>0.9796249444117152</v>
       </c>
       <c r="F23">
-        <v>0.9164677416074754</v>
+        <v>0.9290991409831405</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030201780809007</v>
+        <v>1.036061348813117</v>
       </c>
       <c r="J23">
-        <v>0.9874713733144745</v>
+        <v>0.9985030490129781</v>
       </c>
       <c r="K23">
-        <v>0.9999825750136884</v>
+        <v>1.013819014425798</v>
       </c>
       <c r="L23">
-        <v>0.9854602885134159</v>
+        <v>0.9952886798676096</v>
       </c>
       <c r="M23">
-        <v>0.9335413712902593</v>
+        <v>0.9458702409767267</v>
       </c>
       <c r="N23">
-        <v>0.9888736959291309</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.003428538519974</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.020900971634228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9641705756321887</v>
+        <v>0.9735867101056209</v>
       </c>
       <c r="D24">
-        <v>0.9907012006618241</v>
+        <v>1.002687016647752</v>
       </c>
       <c r="E24">
-        <v>0.9765839782242062</v>
+        <v>0.9847674625176841</v>
       </c>
       <c r="F24">
-        <v>0.9304251131744669</v>
+        <v>0.9405683641922263</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032199627343489</v>
+        <v>1.037186440259064</v>
       </c>
       <c r="J24">
-        <v>0.9931211962947046</v>
+        <v>1.002140848093936</v>
       </c>
       <c r="K24">
-        <v>1.00489360549292</v>
+        <v>1.016667109007906</v>
       </c>
       <c r="L24">
-        <v>0.991035174478624</v>
+        <v>0.9990674655221381</v>
       </c>
       <c r="M24">
-        <v>0.9457951096054994</v>
+        <v>0.955726251663192</v>
       </c>
       <c r="N24">
-        <v>0.9945315423060368</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.004660353156841</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.022907143471975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9738825096612465</v>
+        <v>0.9809953242487277</v>
       </c>
       <c r="D25">
-        <v>0.9976402943869833</v>
+        <v>1.00733765832099</v>
       </c>
       <c r="E25">
-        <v>0.9843241886980318</v>
+        <v>0.9905305164508308</v>
       </c>
       <c r="F25">
-        <v>0.9456342818265703</v>
+        <v>0.9532055751877162</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034347955162796</v>
+        <v>1.038393986120939</v>
       </c>
       <c r="J25">
-        <v>0.9993219737976505</v>
+        <v>1.006179646498134</v>
       </c>
       <c r="K25">
-        <v>1.010275352525323</v>
+        <v>1.019823124563373</v>
       </c>
       <c r="L25">
-        <v>0.9971708254827659</v>
+        <v>1.00327763443338</v>
       </c>
       <c r="M25">
-        <v>0.959139571153595</v>
+        <v>0.9665765187022635</v>
       </c>
       <c r="N25">
-        <v>1.000741125624276</v>
+        <v>1.006027743342753</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.025135770005319</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_34/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9866576127743009</v>
+        <v>0.9876265796768361</v>
       </c>
       <c r="D2">
-        <v>1.010888466779866</v>
+        <v>1.011723131747493</v>
       </c>
       <c r="E2">
-        <v>0.9949569805317919</v>
+        <v>0.9957957121728171</v>
       </c>
       <c r="F2">
-        <v>0.9627899717126485</v>
+        <v>0.9638123829391663</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.039267816578452</v>
+        <v>1.039615691688638</v>
       </c>
       <c r="J2">
-        <v>1.009244849925817</v>
+        <v>1.010183782830198</v>
       </c>
       <c r="K2">
-        <v>1.022198163886786</v>
+        <v>1.023021525431606</v>
       </c>
       <c r="L2">
-        <v>1.00648702262701</v>
+        <v>1.007313931831804</v>
       </c>
       <c r="M2">
-        <v>0.9747932513329461</v>
+        <v>0.9758000010924547</v>
       </c>
       <c r="N2">
-        <v>1.00706303786765</v>
+        <v>1.009948483969904</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.026766024473867</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.027357141956124</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.018304652165007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9906637131623738</v>
+        <v>0.9914812672833376</v>
       </c>
       <c r="D3">
-        <v>1.013417618767539</v>
+        <v>1.014064620529264</v>
       </c>
       <c r="E3">
-        <v>0.9981038633528034</v>
+        <v>0.9988120657521945</v>
       </c>
       <c r="F3">
-        <v>0.9695215384183896</v>
+        <v>0.9703796399101995</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.039869264066773</v>
+        <v>1.040139234148957</v>
       </c>
       <c r="J3">
-        <v>1.011412171556864</v>
+        <v>1.012206886554467</v>
       </c>
       <c r="K3">
-        <v>1.023881649613447</v>
+        <v>1.024520649973925</v>
       </c>
       <c r="L3">
-        <v>1.008761063231334</v>
+        <v>1.009460169018591</v>
       </c>
       <c r="M3">
-        <v>0.9805598449883035</v>
+        <v>0.9814060928977432</v>
       </c>
       <c r="N3">
-        <v>1.007796082095433</v>
+        <v>1.010492951259064</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.027953726811495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.028414200126212</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.018603078480552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9932046212738074</v>
+        <v>0.993927492039136</v>
       </c>
       <c r="D4">
-        <v>1.015024988395424</v>
+        <v>1.015553841135594</v>
       </c>
       <c r="E4">
-        <v>1.000105866314025</v>
+        <v>1.000732292052761</v>
       </c>
       <c r="F4">
-        <v>0.9737747863721177</v>
+        <v>0.9745310808971909</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.040240098499395</v>
+        <v>1.040460953060244</v>
       </c>
       <c r="J4">
-        <v>1.01278376545245</v>
+        <v>1.013487819157398</v>
       </c>
       <c r="K4">
-        <v>1.024945395063972</v>
+        <v>1.025468100532252</v>
       </c>
       <c r="L4">
-        <v>1.010203013790549</v>
+        <v>1.010821886982468</v>
       </c>
       <c r="M4">
-        <v>0.9842003824434308</v>
+        <v>0.9849469335801612</v>
       </c>
       <c r="N4">
-        <v>1.008259881511055</v>
+        <v>1.010837637560915</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.0287068200303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.029085139411685</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.018789060072126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9942636651268806</v>
+        <v>0.9949473826272848</v>
       </c>
       <c r="D5">
-        <v>1.015697763345442</v>
+        <v>1.016177622961743</v>
       </c>
       <c r="E5">
-        <v>1.000942016032231</v>
+        <v>1.001534592075944</v>
       </c>
       <c r="F5">
-        <v>0.9755423377613539</v>
+        <v>0.976256739171946</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.04039337576036</v>
+        <v>1.040593843868917</v>
       </c>
       <c r="J5">
-        <v>1.01335586996596</v>
+        <v>1.014022325432989</v>
       </c>
       <c r="K5">
-        <v>1.025390406461901</v>
+        <v>1.025864836289677</v>
       </c>
       <c r="L5">
-        <v>1.010804769886192</v>
+        <v>1.011390394932427</v>
       </c>
       <c r="M5">
-        <v>0.9857129225075448</v>
+        <v>0.9864183929716472</v>
       </c>
       <c r="N5">
-        <v>1.008453533208088</v>
+        <v>1.01098163517874</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.029028768390641</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.029373660306573</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.018866665351015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9944440680501888</v>
+        <v>0.9951211391816114</v>
       </c>
       <c r="D6">
-        <v>1.015814962654682</v>
+        <v>1.016286546889727</v>
       </c>
       <c r="E6">
-        <v>1.001084894174704</v>
+        <v>1.001671720975965</v>
       </c>
       <c r="F6">
-        <v>0.9758411958709585</v>
+        <v>0.9765484998417162</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.040420923403958</v>
+        <v>1.040617941965209</v>
       </c>
       <c r="J6">
-        <v>1.013454702403171</v>
+        <v>1.01411476787061</v>
       </c>
       <c r="K6">
-        <v>1.025469358305005</v>
+        <v>1.025935630758781</v>
       </c>
       <c r="L6">
-        <v>1.010908319987609</v>
+        <v>1.011488295276333</v>
       </c>
       <c r="M6">
-        <v>0.9859690684024233</v>
+        <v>0.9866675751820461</v>
       </c>
       <c r="N6">
-        <v>1.008487261071664</v>
+        <v>1.011006758177899</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.02909347064593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.029433461444888</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.01888092007547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9932275991077655</v>
+        <v>0.9939574319135503</v>
       </c>
       <c r="D7">
-        <v>1.01504641082061</v>
+        <v>1.015579704487323</v>
       </c>
       <c r="E7">
-        <v>1.00012497840431</v>
+        <v>1.000757632254744</v>
       </c>
       <c r="F7">
-        <v>0.9738076817231196</v>
+        <v>0.9745712456612007</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.040247697894589</v>
+        <v>1.040470499818113</v>
       </c>
       <c r="J7">
-        <v>1.012799989802539</v>
+        <v>1.013510832659221</v>
       </c>
       <c r="K7">
-        <v>1.024963626666938</v>
+        <v>1.025490723873296</v>
       </c>
       <c r="L7">
-        <v>1.010218894322628</v>
+        <v>1.010843923521107</v>
       </c>
       <c r="M7">
-        <v>0.9842297418796805</v>
+        <v>0.9849834730310677</v>
       </c>
       <c r="N7">
-        <v>1.008266126087345</v>
+        <v>1.010870389370508</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.028740126376911</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.029123546197607</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.018795165123736</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9880333501491856</v>
+        <v>0.9889741371907143</v>
       </c>
       <c r="D8">
-        <v>1.011764705372354</v>
+        <v>1.012551542335516</v>
       </c>
       <c r="E8">
-        <v>0.9960376384661518</v>
+        <v>0.9968528463790641</v>
       </c>
       <c r="F8">
-        <v>0.9650984723029151</v>
+        <v>0.9660893289853161</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.03948178158391</v>
+        <v>1.039810169826572</v>
       </c>
       <c r="J8">
-        <v>1.009994467352848</v>
+        <v>1.010907083571296</v>
       </c>
       <c r="K8">
-        <v>1.022787639937119</v>
+        <v>1.023564137311811</v>
       </c>
       <c r="L8">
-        <v>1.007271551323834</v>
+        <v>1.008075617299516</v>
       </c>
       <c r="M8">
-        <v>0.9767729229508415</v>
+        <v>0.9777491154302218</v>
       </c>
       <c r="N8">
-        <v>1.007317589614553</v>
+        <v>1.010222860980397</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.027206115831795</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.027766355608319</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.018416118435493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9784520602645503</v>
+        <v>0.979767475050397</v>
       </c>
       <c r="D9">
-        <v>1.005728639546181</v>
+        <v>1.006972381335327</v>
       </c>
       <c r="E9">
-        <v>0.988546414702081</v>
+        <v>0.9896836274189386</v>
       </c>
       <c r="F9">
-        <v>0.9488916830481562</v>
+        <v>0.9502960620625703</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.037979242203866</v>
+        <v>1.038496955019954</v>
       </c>
       <c r="J9">
-        <v>1.004789370633262</v>
+        <v>1.00605549842662</v>
       </c>
       <c r="K9">
-        <v>1.018729452322729</v>
+        <v>1.019953340393676</v>
       </c>
       <c r="L9">
-        <v>1.00182809252989</v>
+        <v>1.00294632788065</v>
       </c>
       <c r="M9">
-        <v>0.9628722108608491</v>
+        <v>0.9642505410928207</v>
       </c>
       <c r="N9">
-        <v>1.005555764102884</v>
+        <v>1.008925949079833</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.024333385726671</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.025209706684464</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.017681377931517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9717568108494627</v>
+        <v>0.973379442400094</v>
       </c>
       <c r="D10">
-        <v>1.001535885401553</v>
+        <v>1.003129859310086</v>
       </c>
       <c r="E10">
-        <v>0.983348403142383</v>
+        <v>0.9847495974320565</v>
       </c>
       <c r="F10">
-        <v>0.9374297516058313</v>
+        <v>0.939180575115331</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.036876914897505</v>
+        <v>1.037539872201638</v>
       </c>
       <c r="J10">
-        <v>1.001137602064216</v>
+        <v>1.00269055784673</v>
       </c>
       <c r="K10">
-        <v>1.015877464224994</v>
+        <v>1.01744283219362</v>
       </c>
       <c r="L10">
-        <v>0.9980249597685749</v>
+        <v>0.9993997722315345</v>
       </c>
       <c r="M10">
-        <v>0.9530287498374037</v>
+        <v>0.9547422099234399</v>
       </c>
       <c r="N10">
-        <v>1.004319839454202</v>
+        <v>1.00813781316522</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.022333885634987</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.023453348675553</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017159259672394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9687873921213082</v>
+        <v>0.9706071214997658</v>
       </c>
       <c r="D11">
-        <v>0.9996907150806664</v>
+        <v>1.001482806319806</v>
       </c>
       <c r="E11">
-        <v>0.9810536940139966</v>
+        <v>0.982625975084202</v>
       </c>
       <c r="F11">
-        <v>0.9322987700249864</v>
+        <v>0.9342721498467493</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.036380760955209</v>
+        <v>1.037126712847715</v>
       </c>
       <c r="J11">
-        <v>0.9995188754899377</v>
+        <v>1.0012559460525</v>
       </c>
       <c r="K11">
-        <v>1.014618466420101</v>
+        <v>1.016376813157723</v>
       </c>
       <c r="L11">
-        <v>0.9963419787345621</v>
+        <v>0.9978831501834915</v>
       </c>
       <c r="M11">
-        <v>0.9486212841355781</v>
+        <v>0.9505500066677716</v>
       </c>
       <c r="N11">
-        <v>1.003773190788732</v>
+        <v>1.007982813035425</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.021477127856744</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.022736253723436</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.016939067698176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9676652709461985</v>
+        <v>0.9695654524307268</v>
       </c>
       <c r="D12">
-        <v>0.9989899115428716</v>
+        <v>1.000861105957426</v>
       </c>
       <c r="E12">
-        <v>0.9801871579301786</v>
+        <v>0.9818294162170915</v>
       </c>
       <c r="F12">
-        <v>0.9303569372812706</v>
+        <v>0.932421566703347</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.03618872044813</v>
+        <v>1.036967926131927</v>
       </c>
       <c r="J12">
-        <v>0.9989040617488104</v>
+        <v>1.000716140152957</v>
       </c>
       <c r="K12">
-        <v>1.014136488872517</v>
+        <v>1.015971827110254</v>
       </c>
       <c r="L12">
-        <v>0.9957040459979399</v>
+        <v>0.9973132167620491</v>
       </c>
       <c r="M12">
-        <v>0.9469521576674036</v>
+        <v>0.9489690473084678</v>
       </c>
       <c r="N12">
-        <v>1.003564933825786</v>
+        <v>1.007940138505395</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.021136342141646</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.022449912572273</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.016854556007515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9679053478708185</v>
+        <v>0.96978805243302</v>
       </c>
       <c r="D13">
-        <v>0.999138917157437</v>
+        <v>1.000992979718435</v>
       </c>
       <c r="E13">
-        <v>0.9803723243090001</v>
+        <v>0.9819993781508612</v>
       </c>
       <c r="F13">
-        <v>0.9307735044409982</v>
+        <v>0.9328182862427632</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.036229353043502</v>
+        <v>1.037001360674241</v>
       </c>
       <c r="J13">
-        <v>0.9990351292928812</v>
+        <v>1.000830922811774</v>
       </c>
       <c r="K13">
-        <v>1.014238543338634</v>
+        <v>1.016057210437786</v>
       </c>
       <c r="L13">
-        <v>0.9958401393774158</v>
+        <v>0.9974345384062914</v>
       </c>
       <c r="M13">
-        <v>0.9473100800196533</v>
+        <v>0.9493077982586318</v>
       </c>
       <c r="N13">
-        <v>1.003609202684435</v>
+        <v>1.007948235765657</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.021205960755225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.022507500787989</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.016872236357539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9686943853632604</v>
+        <v>0.9705206613996333</v>
       </c>
       <c r="D14">
-        <v>0.9996322300632705</v>
+        <v>1.00143078282031</v>
       </c>
       <c r="E14">
-        <v>0.9809817725214015</v>
+        <v>0.9825597463581408</v>
       </c>
       <c r="F14">
-        <v>0.9321383037658324</v>
+        <v>0.9341190980481048</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.03636465147204</v>
+        <v>1.037113321115018</v>
       </c>
       <c r="J14">
-        <v>0.9994677159506661</v>
+        <v>1.001210894184858</v>
       </c>
       <c r="K14">
-        <v>1.014578063291755</v>
+        <v>1.016342700532891</v>
       </c>
       <c r="L14">
-        <v>0.9962889365386366</v>
+        <v>0.9978356411197855</v>
       </c>
       <c r="M14">
-        <v>0.9484832925947076</v>
+        <v>0.9504191815972255</v>
       </c>
       <c r="N14">
-        <v>1.00375580706578</v>
+        <v>1.007978808609993</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.021447472594324</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.022710943339737</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.016931890477901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9691812134079217</v>
+        <v>0.9709734615207594</v>
       </c>
       <c r="D15">
-        <v>0.9999384952100576</v>
+        <v>1.001703401969458</v>
       </c>
       <c r="E15">
-        <v>0.9813583087286284</v>
+        <v>0.9829066980635194</v>
       </c>
       <c r="F15">
-        <v>0.9329778686633845</v>
+        <v>0.9349201428492907</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.036448956638537</v>
+        <v>1.03718347752384</v>
       </c>
       <c r="J15">
-        <v>0.9997355307708656</v>
+        <v>1.001446956097088</v>
       </c>
       <c r="K15">
-        <v>1.014789637457937</v>
+        <v>1.016521516566616</v>
       </c>
       <c r="L15">
-        <v>0.996566618805813</v>
+        <v>0.9980845664001888</v>
       </c>
       <c r="M15">
-        <v>0.9492052732251525</v>
+        <v>0.9511039263077254</v>
       </c>
       <c r="N15">
-        <v>1.003846821806074</v>
+        <v>1.008000483727102</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.021603049305447</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.022843923783354</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.016969522530787</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9719729465377674</v>
+        <v>0.9735824552874611</v>
       </c>
       <c r="D16">
-        <v>1.001685641753229</v>
+        <v>1.003266330328321</v>
       </c>
       <c r="E16">
-        <v>0.9835183776197958</v>
+        <v>0.9849081709395675</v>
       </c>
       <c r="F16">
-        <v>0.9377887911742598</v>
+        <v>0.9395248847188185</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.036922040663411</v>
+        <v>1.037579343935969</v>
       </c>
       <c r="J16">
-        <v>1.001263930314885</v>
+        <v>1.002804592104189</v>
       </c>
       <c r="K16">
-        <v>1.01598793949799</v>
+        <v>1.017540354399021</v>
       </c>
       <c r="L16">
-        <v>0.9981541545562179</v>
+        <v>0.9995178693932175</v>
       </c>
       <c r="M16">
-        <v>0.953339805771236</v>
+        <v>0.9550389979242366</v>
       </c>
       <c r="N16">
-        <v>1.00436464652803</v>
+        <v>1.008157521792452</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.022453545058463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.023567818836731</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.017181917709349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9737016480448806</v>
+        <v>0.975210262323596</v>
       </c>
       <c r="D17">
-        <v>1.002769182760635</v>
+        <v>1.004244479166539</v>
       </c>
       <c r="E17">
-        <v>0.984858392046477</v>
+        <v>0.986160860147275</v>
       </c>
       <c r="F17">
-        <v>0.9407566544715787</v>
+        <v>0.9423793479483233</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.037211758108572</v>
+        <v>1.037825033037625</v>
       </c>
       <c r="J17">
-        <v>1.002209342183275</v>
+        <v>1.003655573019743</v>
       </c>
       <c r="K17">
-        <v>1.016728831763457</v>
+        <v>1.018178494336337</v>
       </c>
       <c r="L17">
-        <v>0.9991372213688213</v>
+        <v>1.000415970154356</v>
       </c>
       <c r="M17">
-        <v>0.9558897941773237</v>
+        <v>0.9574791847116372</v>
       </c>
       <c r="N17">
-        <v>1.004684948170968</v>
+        <v>1.008291802710798</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.022980033908047</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.024021897253492</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.017314788473976</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9746957094746665</v>
+        <v>0.9761510354381928</v>
       </c>
       <c r="D18">
-        <v>1.003388121754026</v>
+        <v>1.004806042099494</v>
       </c>
       <c r="E18">
-        <v>0.9856289828186435</v>
+        <v>0.9868854350062388</v>
       </c>
       <c r="F18">
-        <v>0.942463618152851</v>
+        <v>0.9440264954468254</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.037374323920974</v>
+        <v>1.037963713398305</v>
       </c>
       <c r="J18">
-        <v>1.002749985923368</v>
+        <v>1.004146323111905</v>
       </c>
       <c r="K18">
-        <v>1.017148626966809</v>
+        <v>1.018542329483006</v>
       </c>
       <c r="L18">
-        <v>0.9997004769112769</v>
+        <v>1.000934449020582</v>
       </c>
       <c r="M18">
-        <v>0.9573553516233108</v>
+        <v>0.9588868083131167</v>
       </c>
       <c r="N18">
-        <v>1.004867468403532</v>
+        <v>1.00838224969771</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.023265005884489</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.024266166912543</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.017389732699998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9750382893397405</v>
+        <v>0.9764760988544275</v>
       </c>
       <c r="D19">
-        <v>1.003605173853599</v>
+        <v>1.005003976300439</v>
       </c>
       <c r="E19">
-        <v>0.9858953340260591</v>
+        <v>0.9871366727966575</v>
       </c>
       <c r="F19">
-        <v>0.9430480952342909</v>
+        <v>0.9445913297851184</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.037432370866581</v>
+        <v>1.038013791300237</v>
       </c>
       <c r="J19">
-        <v>1.002938294113629</v>
+        <v>1.004318224231248</v>
       </c>
       <c r="K19">
-        <v>1.017297755104037</v>
+        <v>1.018672807053361</v>
       </c>
       <c r="L19">
-        <v>0.9998961786244789</v>
+        <v>1.001115442503986</v>
       </c>
       <c r="M19">
-        <v>0.9578577697651147</v>
+        <v>0.9593701975242167</v>
       </c>
       <c r="N19">
-        <v>1.004931542995827</v>
+        <v>1.008417191961678</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.023376954900772</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.024365547976245</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.017417207189085</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9735164960276541</v>
+        <v>0.9750354242130302</v>
       </c>
       <c r="D20">
-        <v>1.002652704915941</v>
+        <v>1.004138937680817</v>
       </c>
       <c r="E20">
-        <v>0.9847147153734092</v>
+        <v>0.9860261007028761</v>
       </c>
       <c r="F20">
-        <v>0.9404394975329878</v>
+        <v>0.9420737709562148</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.037180627941549</v>
+        <v>1.037798467838763</v>
       </c>
       <c r="J20">
-        <v>1.002107916982447</v>
+        <v>1.003563804904337</v>
       </c>
       <c r="K20">
-        <v>1.016649069532798</v>
+        <v>1.01810939720299</v>
       </c>
       <c r="L20">
-        <v>0.9990317705920921</v>
+        <v>1.000319196767247</v>
       </c>
       <c r="M20">
-        <v>0.9556172528162493</v>
+        <v>0.9572178585372396</v>
       </c>
       <c r="N20">
-        <v>1.004650535599472</v>
+        <v>1.008275789782044</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.022922277891947</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.023971553641504</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.017300346987847</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9684692720116015</v>
+        <v>0.9703316180583795</v>
       </c>
       <c r="D21">
-        <v>0.9994964233385483</v>
+        <v>1.00132503144925</v>
       </c>
       <c r="E21">
-        <v>0.980808768703037</v>
+        <v>0.9824186551033656</v>
       </c>
       <c r="F21">
-        <v>0.9317446932204976</v>
+        <v>0.9337654064393788</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.036329103523125</v>
+        <v>1.037090650013131</v>
       </c>
       <c r="J21">
-        <v>0.9993471034863771</v>
+        <v>1.001124352824305</v>
       </c>
       <c r="K21">
-        <v>1.01448734241888</v>
+        <v>1.016281344111814</v>
       </c>
       <c r="L21">
-        <v>0.9961630805230968</v>
+        <v>0.9977409464739315</v>
       </c>
       <c r="M21">
-        <v>0.948145820634649</v>
+        <v>0.9501205208212533</v>
       </c>
       <c r="N21">
-        <v>1.003715645584976</v>
+        <v>1.008038419500951</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.021397093114438</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.022682634159185</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.016921043111774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9652112429334841</v>
+        <v>0.967296320397053</v>
       </c>
       <c r="D22">
-        <v>0.9974586112689966</v>
+        <v>0.9995094899793395</v>
       </c>
       <c r="E22">
-        <v>0.9782946621218715</v>
+        <v>0.9800979776381356</v>
       </c>
       <c r="F22">
-        <v>0.9260971619377851</v>
+        <v>0.9283725598433722</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.035765096988055</v>
+        <v>1.03661999737811</v>
       </c>
       <c r="J22">
-        <v>0.997558100838866</v>
+        <v>0.999542178040533</v>
       </c>
       <c r="K22">
-        <v>1.01308058224275</v>
+        <v>1.01509067023569</v>
       </c>
       <c r="L22">
-        <v>0.9943087274961336</v>
+        <v>0.9960742831760325</v>
       </c>
       <c r="M22">
-        <v>0.9432900043245306</v>
+        <v>0.9455103019936043</v>
       </c>
       <c r="N22">
-        <v>1.003108935509262</v>
+        <v>1.007870978560438</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.020388665104239</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.021825706226549</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.016670289104347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.966937623900283</v>
+        <v>0.9688913601837447</v>
       </c>
       <c r="D23">
-        <v>0.9985319053611309</v>
+        <v>1.000455361980341</v>
       </c>
       <c r="E23">
-        <v>0.9796249444117152</v>
+        <v>0.9813138326064758</v>
       </c>
       <c r="F23">
-        <v>0.9290991409831405</v>
+        <v>0.9312246506143483</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.036061348813117</v>
+        <v>1.036862583260074</v>
       </c>
       <c r="J23">
-        <v>0.9985030490129781</v>
+        <v>1.000365008805305</v>
       </c>
       <c r="K23">
-        <v>1.013819014425798</v>
+        <v>1.015705200979005</v>
       </c>
       <c r="L23">
-        <v>0.9952886798676096</v>
+        <v>0.9969431474469123</v>
       </c>
       <c r="M23">
-        <v>0.9458702409767267</v>
+        <v>0.9479459230782253</v>
       </c>
       <c r="N23">
-        <v>1.003428538519974</v>
+        <v>1.007915030676143</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.020900971634228</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.022249463400755</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.01679824896488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9735867101056209</v>
+        <v>0.9751016530550631</v>
       </c>
       <c r="D24">
-        <v>1.002687016647752</v>
+        <v>1.004168876649716</v>
       </c>
       <c r="E24">
-        <v>0.9847674625176841</v>
+        <v>0.9860754191904763</v>
       </c>
       <c r="F24">
-        <v>0.9405683641922263</v>
+        <v>0.942198135515411</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.037186440259064</v>
+        <v>1.037802513824263</v>
       </c>
       <c r="J24">
-        <v>1.002140848093936</v>
+        <v>1.003593017628412</v>
       </c>
       <c r="K24">
-        <v>1.016667109007906</v>
+        <v>1.018123175543089</v>
       </c>
       <c r="L24">
-        <v>0.9990674655221381</v>
+        <v>1.000351559849385</v>
       </c>
       <c r="M24">
-        <v>0.955726251663192</v>
+        <v>0.9573225040175968</v>
       </c>
       <c r="N24">
-        <v>1.004660353156841</v>
+        <v>1.008278616511045</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.022907143471975</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.023950742150842</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017301631104687</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9809953242487277</v>
+        <v>0.9822001017687734</v>
       </c>
       <c r="D25">
-        <v>1.00733765832099</v>
+        <v>1.00845266362927</v>
       </c>
       <c r="E25">
-        <v>0.9905305164508308</v>
+        <v>0.9915724891819898</v>
       </c>
       <c r="F25">
-        <v>0.9532055751877162</v>
+        <v>0.9544870054062708</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.038393986120939</v>
+        <v>1.038858221707128</v>
       </c>
       <c r="J25">
-        <v>1.006179646498134</v>
+        <v>1.007341719846731</v>
       </c>
       <c r="K25">
-        <v>1.019823124563373</v>
+        <v>1.020921164822816</v>
       </c>
       <c r="L25">
-        <v>1.00327763443338</v>
+        <v>1.004303055522155</v>
       </c>
       <c r="M25">
-        <v>0.9665765187022635</v>
+        <v>0.9678354842842712</v>
       </c>
       <c r="N25">
-        <v>1.006027743342753</v>
+        <v>1.009240308645867</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.025135770005319</v>
+        <v>1.025925897592705</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.017881903213946</v>
       </c>
     </row>
   </sheetData>
